--- a/medicine/Enfance/Henriette_Perrin-Duportal/Henriette_Perrin-Duportal.xlsx
+++ b/medicine/Enfance/Henriette_Perrin-Duportal/Henriette_Perrin-Duportal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henriette Perrin-Duportal est une écrivaine française, autrice sur la place des femmes de Besançon pendant la Révolution française dans les Annales Révolutionnaires, de livres pour enfants et de manuels scolaires, née le 15 avril 1869 à Bastia et morte le 9 novembre 1938 à Paris.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henriette Duportal, née à Bastia en 1869, est la fille d'Élise Jeanne Mayet-Tissot et d'Henri Simon Duportal, républicain et ingénieur des Ponts et Chaussées (polytechnicien), et petite-fille d'Armand Duportal, député et préfet de Haute-Garonne.
-Elle sera élève d'Albert Mathiez et publie par la suite une longue étude sur le club des femmes à Besançon pendant la Révolution française[1] dans les Annales révolutionnaires entre 1917 et 1918. Elle sera considérée comme pionnière sur ce sujet.
+Elle sera élève d'Albert Mathiez et publie par la suite une longue étude sur le club des femmes à Besançon pendant la Révolution française dans les Annales révolutionnaires entre 1917 et 1918. Elle sera considérée comme pionnière sur ce sujet.
 Elle épouse le physicien Jean Perrin, camarade de son frère au lycée Janson-de-Sailly, le 31 août 1897. Sa sœur, Jeanne Duportal, sera la première femme docteur ès-lettres (1914).
 Elle a également écrit des ouvrages pour enfants, illustrés par sa fille, Aline Lapicque-Perrin ou par Joseph Kuhn-Régnier, ainsi que de manuels scolaires. Elle meurt à Paris en 1938.
 </t>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Le club de femmes de Besançon », Annales révolutionnaires, 1917, IX, 629-653 ; 1918, X, 37-63, 503-532, 643-672
 Georgie au cirque, album pour les parents et pour les enfants, illustrations de Joseph Kuhn-Régnier, Paris, Fernand Nathan, 1933, 1928.
